--- a/07_Bonus/BoundryLayer and y+.xlsx
+++ b/07_Bonus/BoundryLayer and y+.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenFoam\v2112\msys64\home\ofuser\Marine\DTCHull_Tutorials\07_Bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CC4E15-6AAD-4455-83E5-AB215211C82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAF078E-21A9-4EF4-98AF-83D591BDA610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Wall Distance" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>With Wall Function</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>https://www.cfd-online.com/Wiki/Y_plus_wall_distance_estimation</t>
+  </si>
+  <si>
+    <t>ITTC 7.5-03-02-04</t>
+  </si>
+  <si>
+    <t>Practical Guidelines for Ship Resistance CFD</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>y+</t>
   </si>
 </sst>
 </file>
@@ -108,10 +126,18 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,16 +160,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,7 +454,7 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,572 +502,882 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="F4" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="F7" t="s">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G8" t="s">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
+      <c r="F9">
         <v>30</v>
       </c>
-      <c r="G6">
+      <c r="G9">
         <v>200</v>
       </c>
-      <c r="H6">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="I9">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <f>$A7*$B$1/$B$3</f>
-        <v>5504587.1559633026</v>
-      </c>
-      <c r="C7" s="1">
-        <f>(2*LOG10(B7)-0.65)^-2.3</f>
-        <v>2.8246578265800205E-3</v>
-      </c>
-      <c r="D7" s="2">
-        <f>C7*0.5*$B$2*$A7^2</f>
-        <v>1.4096454883547593</v>
-      </c>
-      <c r="E7" s="2">
-        <f>SQRT(D7/$B$2)</f>
-        <v>3.7580964773273322E-2</v>
-      </c>
-      <c r="F7" s="3">
-        <f>F$6*$B$3/$E7</f>
-        <v>8.7012135524672447E-4</v>
-      </c>
-      <c r="G7" s="3">
-        <f>G$6*$B$3/$E7</f>
-        <v>5.8008090349781641E-3</v>
-      </c>
-      <c r="H7" s="3">
-        <f>H$6*$B$3/$E7</f>
-        <v>2.9004045174890818E-5</v>
-      </c>
-      <c r="I7" s="3">
-        <f>I$6*$B$3/$E7</f>
-        <v>1.4502022587445409E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B8" s="1">
-        <f>$A8*$B$1/$B$3</f>
-        <v>6055045.8715596339</v>
-      </c>
-      <c r="C8" s="1">
-        <f>(2*LOG10(B8)-0.65)^-2.3</f>
-        <v>2.7831847377012306E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8:D17" si="0">C8*0.5*$B$2*$A8^2</f>
-        <v>1.6806274954532572</v>
-      </c>
-      <c r="E8" s="2">
-        <f>SQRT(D8/$B$2)</f>
-        <v>4.1034458279709807E-2</v>
-      </c>
-      <c r="F8" s="3">
-        <f>F$6*$B$3/$E8</f>
-        <v>7.9689123168391065E-4</v>
-      </c>
-      <c r="G8" s="3">
-        <f>G$6*$B$3/$E8</f>
-        <v>5.3126082112260721E-3</v>
-      </c>
-      <c r="H8" s="3">
-        <f>H$6*$B$3/$E8</f>
-        <v>2.6563041056130358E-5</v>
-      </c>
-      <c r="I8" s="3">
-        <f>I$6*$B$3/$E8</f>
-        <v>1.3281520528065179E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1.2</v>
-      </c>
-      <c r="B9" s="1">
-        <f>$A9*$B$1/$B$3</f>
-        <v>6605504.5871559633</v>
-      </c>
-      <c r="C9" s="1">
-        <f>(2*LOG10(B9)-0.65)^-2.3</f>
-        <v>2.7460814173223113E-3</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9734219810931672</v>
-      </c>
-      <c r="E9" s="2">
-        <f>SQRT(D9/$B$2)</f>
-        <v>4.4465476726018173E-2</v>
-      </c>
-      <c r="F9" s="3">
-        <f>F$6*$B$3/$E9</f>
-        <v>7.354019884119713E-4</v>
-      </c>
-      <c r="G9" s="3">
-        <f>G$6*$B$3/$E9</f>
-        <v>4.9026799227464756E-3</v>
-      </c>
-      <c r="H9" s="3">
-        <f>H$6*$B$3/$E9</f>
-        <v>2.4513399613732378E-5</v>
-      </c>
-      <c r="I9" s="3">
-        <f>I$6*$B$3/$E9</f>
-        <v>1.2256699806866187E-4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <f>$A10*$B$1/$B$3</f>
-        <v>7155963.3027522946</v>
+        <v>5504587.1559633026</v>
       </c>
       <c r="C10" s="1">
-        <f>(2*LOG10(B10)-0.65)^-2.3</f>
-        <v>2.7125731803127537E-3</v>
+        <f t="shared" ref="C10:C20" si="0">(2*LOG10(B10)-0.65)^-2.3</f>
+        <v>2.8246578265800205E-3</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2877693011232849</v>
+        <f>C10*0.5*$B$2*$A10^2</f>
+        <v>1.4096454883547593</v>
       </c>
       <c r="E10" s="2">
-        <f>SQRT(D10/$B$2)</f>
-        <v>4.7876135363709937E-2</v>
+        <f t="shared" ref="E10:E20" si="1">SQRT(D10/$B$2)</f>
+        <v>3.7580964773273322E-2</v>
       </c>
       <c r="F10" s="3">
-        <f>F$6*$B$3/$E10</f>
-        <v>6.8301252286930752E-4</v>
+        <f>F$9*$B$3/$E10</f>
+        <v>8.7012135524672447E-4</v>
       </c>
       <c r="G10" s="3">
-        <f>G$6*$B$3/$E10</f>
-        <v>4.5534168191287173E-3</v>
+        <f>G$9*$B$3/$E10</f>
+        <v>5.8008090349781641E-3</v>
       </c>
       <c r="H10" s="3">
-        <f>H$6*$B$3/$E10</f>
-        <v>2.2767084095643586E-5</v>
+        <f>H$9*$B$3/$E10</f>
+        <v>2.9004045174890818E-5</v>
       </c>
       <c r="I10" s="3">
-        <f>I$6*$B$3/$E10</f>
-        <v>1.1383542047821793E-4</v>
+        <f>I$9*$B$3/$E10</f>
+        <v>1.4502022587445409E-4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B11" s="1">
         <f>$A11*$B$1/$B$3</f>
-        <v>7706422.0183486231</v>
+        <v>6055045.8715596339</v>
       </c>
       <c r="C11" s="1">
-        <f>(2*LOG10(B11)-0.65)^-2.3</f>
-        <v>2.6820699425473306E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.7831847377012306E-3</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>2.6234345294633603</v>
+        <f>C11*0.5*$B$2*$A11^2</f>
+        <v>1.6806274954532572</v>
       </c>
       <c r="E11" s="2">
-        <f>SQRT(D11/$B$2)</f>
-        <v>5.1268202072009349E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.1034458279709807E-2</v>
       </c>
       <c r="F11" s="3">
-        <f>F$6*$B$3/$E11</f>
-        <v>6.3782225001904357E-4</v>
+        <f>F$9*$B$3/$E11</f>
+        <v>7.9689123168391065E-4</v>
       </c>
       <c r="G11" s="3">
-        <f>G$6*$B$3/$E11</f>
-        <v>4.2521483334602905E-3</v>
+        <f>G$9*$B$3/$E11</f>
+        <v>5.3126082112260721E-3</v>
       </c>
       <c r="H11" s="3">
-        <f>H$6*$B$3/$E11</f>
-        <v>2.1260741667301453E-5</v>
+        <f>H$9*$B$3/$E11</f>
+        <v>2.6563041056130358E-5</v>
       </c>
       <c r="I11" s="3">
-        <f>I$6*$B$3/$E11</f>
-        <v>1.0630370833650728E-4</v>
+        <f>I$9*$B$3/$E11</f>
+        <v>1.3281520528065179E-4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="B12" s="1">
         <f>$A12*$B$1/$B$3</f>
-        <v>8256880.7339449544</v>
+        <v>6605504.5871559633</v>
       </c>
       <c r="C12" s="1">
-        <f>(2*LOG10(B12)-0.65)^-2.3</f>
-        <v>2.6541125338456124E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.7460814173223113E-3</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>2.9802034350352189</v>
+        <f>C12*0.5*$B$2*$A12^2</f>
+        <v>1.9734219810931672</v>
       </c>
       <c r="E12" s="2">
-        <f>SQRT(D12/$B$2)</f>
-        <v>5.4643175242442797E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.4465476726018173E-2</v>
       </c>
       <c r="F12" s="3">
-        <f>F$6*$B$3/$E12</f>
-        <v>5.9842788884275971E-4</v>
+        <f>F$9*$B$3/$E12</f>
+        <v>7.354019884119713E-4</v>
       </c>
       <c r="G12" s="3">
-        <f>G$6*$B$3/$E12</f>
-        <v>3.9895192589517311E-3</v>
+        <f>G$9*$B$3/$E12</f>
+        <v>4.9026799227464756E-3</v>
       </c>
       <c r="H12" s="3">
-        <f>H$6*$B$3/$E12</f>
-        <v>1.9947596294758657E-5</v>
+        <f>H$9*$B$3/$E12</f>
+        <v>2.4513399613732378E-5</v>
       </c>
       <c r="I12" s="3">
-        <f>I$6*$B$3/$E12</f>
-        <v>9.9737981473793281E-5</v>
+        <f>I$9*$B$3/$E12</f>
+        <v>1.2256699806866187E-4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="B13" s="1">
         <f>$A13*$B$1/$B$3</f>
-        <v>8807339.4495412856</v>
+        <v>7155963.3027522946</v>
       </c>
       <c r="C13" s="1">
-        <f>(2*LOG10(B13)-0.65)^-2.3</f>
-        <v>2.6283370805411832E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.7125731803127537E-3</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>3.357879347312839</v>
+        <f>C13*0.5*$B$2*$A13^2</f>
+        <v>2.2877693011232849</v>
       </c>
       <c r="E13" s="2">
-        <f>SQRT(D13/$B$2)</f>
-        <v>5.8002340151865554E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.7876135363709937E-2</v>
       </c>
       <c r="F13" s="3">
-        <f>F$6*$B$3/$E13</f>
-        <v>5.6377035675427402E-4</v>
+        <f>F$9*$B$3/$E13</f>
+        <v>6.8301252286930752E-4</v>
       </c>
       <c r="G13" s="3">
-        <f>G$6*$B$3/$E13</f>
-        <v>3.7584690450284939E-3</v>
+        <f>G$9*$B$3/$E13</f>
+        <v>4.5534168191287173E-3</v>
       </c>
       <c r="H13" s="3">
-        <f>H$6*$B$3/$E13</f>
-        <v>1.8792345225142468E-5</v>
+        <f>H$9*$B$3/$E13</f>
+        <v>2.2767084095643586E-5</v>
       </c>
       <c r="I13" s="3">
-        <f>I$6*$B$3/$E13</f>
-        <v>9.3961726125712337E-5</v>
+        <f>I$9*$B$3/$E13</f>
+        <v>1.1383542047821793E-4</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="B14" s="1">
         <f>$A14*$B$1/$B$3</f>
-        <v>9357798.1651376151</v>
+        <v>7706422.0183486231</v>
       </c>
       <c r="C14" s="1">
-        <f>(2*LOG10(B14)-0.65)^-2.3</f>
-        <v>2.6044506494687231E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.6820699425473306E-3</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>3.7562806692241879</v>
+        <f>C14*0.5*$B$2*$A14^2</f>
+        <v>2.6234345294633603</v>
       </c>
       <c r="E14" s="2">
-        <f>SQRT(D14/$B$2)</f>
-        <v>6.1346810744180531E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.1268202072009349E-2</v>
       </c>
       <c r="F14" s="3">
-        <f>F$6*$B$3/$E14</f>
-        <v>5.33035044582199E-4</v>
+        <f>F$9*$B$3/$E14</f>
+        <v>6.3782225001904357E-4</v>
       </c>
       <c r="G14" s="3">
-        <f>G$6*$B$3/$E14</f>
-        <v>3.5535669638813269E-3</v>
+        <f>G$9*$B$3/$E14</f>
+        <v>4.2521483334602905E-3</v>
       </c>
       <c r="H14" s="3">
-        <f>H$6*$B$3/$E14</f>
-        <v>1.7767834819406635E-5</v>
+        <f>H$9*$B$3/$E14</f>
+        <v>2.1260741667301453E-5</v>
       </c>
       <c r="I14" s="3">
-        <f>I$6*$B$3/$E14</f>
-        <v>8.8839174097033171E-5</v>
+        <f>I$9*$B$3/$E14</f>
+        <v>1.0630370833650728E-4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="B15" s="1">
         <f>$A15*$B$1/$B$3</f>
-        <v>9908256.8807339463</v>
+        <v>8256880.7339449544</v>
       </c>
       <c r="C15" s="1">
-        <f>(2*LOG10(B15)-0.65)^-2.3</f>
-        <v>2.5822141528056672E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.6541125338456124E-3</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>4.1752388723828453</v>
+        <f>C15*0.5*$B$2*$A15^2</f>
+        <v>2.9802034350352189</v>
       </c>
       <c r="E15" s="2">
-        <f>SQRT(D15/$B$2)</f>
-        <v>6.4677561236839945E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.4643175242442797E-2</v>
       </c>
       <c r="F15" s="3">
-        <f>F$6*$B$3/$E15</f>
-        <v>5.0558492581773899E-4</v>
+        <f>F$9*$B$3/$E15</f>
+        <v>5.9842788884275971E-4</v>
       </c>
       <c r="G15" s="3">
-        <f>G$6*$B$3/$E15</f>
-        <v>3.3705661721182604E-3</v>
+        <f>G$9*$B$3/$E15</f>
+        <v>3.9895192589517311E-3</v>
       </c>
       <c r="H15" s="3">
-        <f>H$6*$B$3/$E15</f>
-        <v>1.6852830860591303E-5</v>
+        <f>H$9*$B$3/$E15</f>
+        <v>1.9947596294758657E-5</v>
       </c>
       <c r="I15" s="3">
-        <f>I$6*$B$3/$E15</f>
-        <v>8.4264154302956498E-5</v>
+        <f>I$9*$B$3/$E15</f>
+        <v>9.9737981473793281E-5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="B16" s="1">
         <f>$A16*$B$1/$B$3</f>
-        <v>10458715.596330274</v>
+        <v>8807339.4495412856</v>
       </c>
       <c r="C16" s="1">
-        <f>(2*LOG10(B16)-0.65)^-2.3</f>
-        <v>2.5614300737996244E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.6283370805411832E-3</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>4.6145968587702262</v>
+        <f>C16*0.5*$B$2*$A16^2</f>
+        <v>3.357879347312839</v>
       </c>
       <c r="E16" s="2">
-        <f>SQRT(D16/$B$2)</f>
-        <v>6.7995450459632387E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.8002340151865554E-2</v>
       </c>
       <c r="F16" s="3">
-        <f>F$6*$B$3/$E16</f>
-        <v>4.8091452853030756E-4</v>
+        <f>F$9*$B$3/$E16</f>
+        <v>5.6377035675427402E-4</v>
       </c>
       <c r="G16" s="3">
-        <f>G$6*$B$3/$E16</f>
-        <v>3.2060968568687173E-3</v>
+        <f>G$9*$B$3/$E16</f>
+        <v>3.7584690450284939E-3</v>
       </c>
       <c r="H16" s="3">
-        <f>H$6*$B$3/$E16</f>
-        <v>1.6030484284343588E-5</v>
+        <f>H$9*$B$3/$E16</f>
+        <v>1.8792345225142468E-5</v>
       </c>
       <c r="I16" s="3">
-        <f>I$6*$B$3/$E16</f>
-        <v>8.0152421421717931E-5</v>
+        <f>I$9*$B$3/$E16</f>
+        <v>9.3961726125712337E-5</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="B17" s="1">
         <f>$A17*$B$1/$B$3</f>
+        <v>9357798.1651376151</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6044506494687231E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <f>C17*0.5*$B$2*$A17^2</f>
+        <v>3.7562806692241879</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>6.1346810744180531E-2</v>
+      </c>
+      <c r="F17" s="3">
+        <f>F$9*$B$3/$E17</f>
+        <v>5.33035044582199E-4</v>
+      </c>
+      <c r="G17" s="3">
+        <f>G$9*$B$3/$E17</f>
+        <v>3.5535669638813269E-3</v>
+      </c>
+      <c r="H17" s="3">
+        <f>H$9*$B$3/$E17</f>
+        <v>1.7767834819406635E-5</v>
+      </c>
+      <c r="I17" s="3">
+        <f>I$9*$B$3/$E17</f>
+        <v>8.8839174097033171E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1.8</v>
+      </c>
+      <c r="B18" s="1">
+        <f>$A18*$B$1/$B$3</f>
+        <v>9908256.8807339463</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5822141528056672E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <f>C18*0.5*$B$2*$A18^2</f>
+        <v>4.1752388723828453</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>6.4677561236839945E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <f>F$9*$B$3/$E18</f>
+        <v>5.0558492581773899E-4</v>
+      </c>
+      <c r="G18" s="3">
+        <f>G$9*$B$3/$E18</f>
+        <v>3.3705661721182604E-3</v>
+      </c>
+      <c r="H18" s="3">
+        <f>H$9*$B$3/$E18</f>
+        <v>1.6852830860591303E-5</v>
+      </c>
+      <c r="I18" s="3">
+        <f>I$9*$B$3/$E18</f>
+        <v>8.4264154302956498E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1.9</v>
+      </c>
+      <c r="B19" s="1">
+        <f>$A19*$B$1/$B$3</f>
+        <v>10458715.596330274</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5614300737996244E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <f>C19*0.5*$B$2*$A19^2</f>
+        <v>4.6145968587702262</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>6.7995450459632387E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <f>F$9*$B$3/$E19</f>
+        <v>4.8091452853030756E-4</v>
+      </c>
+      <c r="G19" s="3">
+        <f>G$9*$B$3/$E19</f>
+        <v>3.2060968568687173E-3</v>
+      </c>
+      <c r="H19" s="3">
+        <f>H$9*$B$3/$E19</f>
+        <v>1.6030484284343588E-5</v>
+      </c>
+      <c r="I19" s="3">
+        <f>I$9*$B$3/$E19</f>
+        <v>8.0152421421717931E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <f>$A20*$B$1/$B$3</f>
         <v>11009174.311926605</v>
       </c>
-      <c r="C17" s="1">
-        <f>(2*LOG10(B17)-0.65)^-2.3</f>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
         <v>2.5419334764138239E-3</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
+      <c r="D20" s="2">
+        <f>C20*0.5*$B$2*$A20^2</f>
         <v>5.0742076056172749</v>
       </c>
-      <c r="E17" s="2">
-        <f>SQRT(D17/$B$2)</f>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
         <v>7.1301240892621548E-2</v>
       </c>
-      <c r="F17" s="3">
-        <f>F$6*$B$3/$E17</f>
+      <c r="F20" s="3">
+        <f>F$9*$B$3/$E20</f>
         <v>4.586175442478713E-4</v>
       </c>
-      <c r="G17" s="3">
-        <f>G$6*$B$3/$E17</f>
+      <c r="G20" s="3">
+        <f>G$9*$B$3/$E20</f>
         <v>3.057450294985809E-3</v>
       </c>
-      <c r="H17" s="3">
-        <f>H$6*$B$3/$E17</f>
+      <c r="H20" s="3">
+        <f>H$9*$B$3/$E20</f>
         <v>1.5287251474929047E-5</v>
       </c>
-      <c r="I17" s="3">
-        <f>I$6*$B$3/$E17</f>
+      <c r="I20" s="3">
+        <f>I$9*$B$3/$E20</f>
         <v>7.6436257374645221E-5</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <f>A25/SQRT(9.81*$B$1)</f>
+        <v>0.13034364783429583</v>
+      </c>
+      <c r="C25" s="1">
+        <f>$A25*$B$1/$B$3</f>
+        <v>5504587.1559633026</v>
+      </c>
+      <c r="D25" s="1">
+        <f>0.075/(LOG10(C25)-2)^2</f>
+        <v>3.3371196770135905E-3</v>
+      </c>
+      <c r="E25" s="3">
+        <f>E$23*$B$1/(C25*SQRT(D25/2))</f>
+        <v>2.6684287115373273E-5</v>
+      </c>
+      <c r="F25" s="3">
+        <f>E25*$F$23</f>
+        <v>8.0052861346119818E-4</v>
+      </c>
+      <c r="G25" s="3">
+        <f>E25*$G$23</f>
+        <v>2.6684287115373274E-3</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="A26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:B35" si="2">A26/SQRT(9.81*$B$1)</f>
+        <v>0.14337801261772545</v>
+      </c>
+      <c r="C26" s="1">
+        <f>$A26*$B$1/$B$3</f>
+        <v>6055045.8715596339</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ref="D26:D35" si="3">0.075/(LOG10(C26)-2)^2</f>
+        <v>3.2795993303269075E-3</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" ref="E26:E35" si="4">E$23*$B$1/(C26*SQRT(D26/2))</f>
+        <v>2.447025054912376E-5</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" ref="F26:F35" si="5">E26*$F$23</f>
+        <v>7.3410751647371277E-4</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" ref="G26:G35" si="6">E26*$G$23</f>
+        <v>2.4470250549123761E-3</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27">
+        <v>1.2</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>0.15641237740115502</v>
+      </c>
+      <c r="C27" s="1">
+        <f>$A27*$B$1/$B$3</f>
+        <v>6605504.5871559633</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="3"/>
+        <v>3.228376123162238E-3</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="4"/>
+        <v>2.2608314524510062E-5</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="5"/>
+        <v>6.7824943573530181E-4</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="6"/>
+        <v>2.2608314524510064E-3</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A28">
+        <v>1.3</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>0.16944674218458461</v>
+      </c>
+      <c r="C28" s="1">
+        <f>$A28*$B$1/$B$3</f>
+        <v>7155963.3027522946</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1823077393438644E-3</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="4"/>
+        <v>2.1019726262518938E-5</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="5"/>
+        <v>6.3059178787556818E-4</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1019726262518938E-3</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29">
+        <v>1.4</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>0.18248110696801417</v>
+      </c>
+      <c r="C29" s="1">
+        <f>$A29*$B$1/$B$3</f>
+        <v>7706422.0183486231</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1405285826800909E-3</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="4"/>
+        <v>1.9647716586189905E-5</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="5"/>
+        <v>5.8943149758569711E-4</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="6"/>
+        <v>1.9647716586189906E-3</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="A30">
+        <v>1.5</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>0.19551547175144376</v>
+      </c>
+      <c r="C30" s="1">
+        <f>$A30*$B$1/$B$3</f>
+        <v>8256880.7339449544</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1023682634700265E-3</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="4"/>
+        <v>1.8450305525779096E-5</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="5"/>
+        <v>5.5350916577337288E-4</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="6"/>
+        <v>1.8450305525779095E-3</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="A31">
+        <v>1.6</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>0.20854983653487336</v>
+      </c>
+      <c r="C31" s="1">
+        <f>$A31*$B$1/$B$3</f>
+        <v>8807339.4495412856</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0672978077827349E-3</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7395765355329506E-5</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="5"/>
+        <v>5.2187296065988524E-4</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7395765355329505E-3</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1.7</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>0.22158420131830292</v>
+      </c>
+      <c r="C32" s="1">
+        <f>$A32*$B$1/$B$3</f>
+        <v>9357798.1651376151</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0348930521809959E-3</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="4"/>
+        <v>1.6459660710821906E-5</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="5"/>
+        <v>4.9378982132465717E-4</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="6"/>
+        <v>1.6459660710821905E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1.8</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>0.23461856610173254</v>
+      </c>
+      <c r="C33" s="1">
+        <f>$A33*$B$1/$B$3</f>
+        <v>9908256.8807339463</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0048090650081948E-3</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="4"/>
+        <v>1.562286033483747E-5</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="5"/>
+        <v>4.6868581004512412E-4</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="6"/>
+        <v>1.562286033483747E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1.9</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="2"/>
+        <v>0.2476529308851621</v>
+      </c>
+      <c r="C34" s="1">
+        <f>$A34*$B$1/$B$3</f>
+        <v>10458715.596330274</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9767618561539794E-3</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="4"/>
+        <v>1.487016709866128E-5</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="5"/>
+        <v>4.4610501295983841E-4</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="6"/>
+        <v>1.487016709866128E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>0.26068729566859167</v>
+      </c>
+      <c r="C35" s="1">
+        <f>$A35*$B$1/$B$3</f>
+        <v>11009174.311926605</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9505150311570595E-3</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="4"/>
+        <v>1.4189352713891893E-5</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="5"/>
+        <v>4.2568058141675676E-4</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4189352713891892E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1114,7 +1453,10 @@
       <c r="E67" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{AF07C881-2259-4AD0-B9C1-2301A88AEF15}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/07_Bonus/BoundryLayer and y+.xlsx
+++ b/07_Bonus/BoundryLayer and y+.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenFoam\v2112\msys64\home\ofuser\Marine\DTCHull_Tutorials\07_Bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAF078E-21A9-4EF4-98AF-83D591BDA610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07CBC7D-DBED-4E99-A191-9995A9364988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -582,35 +582,35 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <f>$A10*$B$1/$B$3</f>
+        <f t="shared" ref="B10:B20" si="0">$A10*$B$1/$B$3</f>
         <v>5504587.1559633026</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C10:C20" si="0">(2*LOG10(B10)-0.65)^-2.3</f>
+        <f t="shared" ref="C10:C20" si="1">(2*LOG10(B10)-0.65)^-2.3</f>
         <v>2.8246578265800205E-3</v>
       </c>
       <c r="D10" s="2">
-        <f>C10*0.5*$B$2*$A10^2</f>
+        <f t="shared" ref="D10:D20" si="2">C10*0.5*$B$2*$A10^2</f>
         <v>1.4096454883547593</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ref="E10:E20" si="1">SQRT(D10/$B$2)</f>
+        <f t="shared" ref="E10:E20" si="3">SQRT(D10/$B$2)</f>
         <v>3.7580964773273322E-2</v>
       </c>
       <c r="F10" s="3">
-        <f>F$9*$B$3/$E10</f>
+        <f t="shared" ref="F10:I20" si="4">F$9*$B$3/$E10</f>
         <v>8.7012135524672447E-4</v>
       </c>
       <c r="G10" s="3">
-        <f>G$9*$B$3/$E10</f>
+        <f t="shared" si="4"/>
         <v>5.8008090349781641E-3</v>
       </c>
       <c r="H10" s="3">
-        <f>H$9*$B$3/$E10</f>
+        <f t="shared" si="4"/>
         <v>2.9004045174890818E-5</v>
       </c>
       <c r="I10" s="3">
-        <f>I$9*$B$3/$E10</f>
+        <f t="shared" si="4"/>
         <v>1.4502022587445409E-4</v>
       </c>
     </row>
@@ -619,35 +619,35 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B11" s="1">
-        <f>$A11*$B$1/$B$3</f>
+        <f t="shared" si="0"/>
         <v>6055045.8715596339</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7831847377012306E-3</v>
       </c>
       <c r="D11" s="2">
-        <f>C11*0.5*$B$2*$A11^2</f>
+        <f t="shared" si="2"/>
         <v>1.6806274954532572</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.1034458279709807E-2</v>
       </c>
       <c r="F11" s="3">
-        <f>F$9*$B$3/$E11</f>
+        <f t="shared" si="4"/>
         <v>7.9689123168391065E-4</v>
       </c>
       <c r="G11" s="3">
-        <f>G$9*$B$3/$E11</f>
+        <f t="shared" si="4"/>
         <v>5.3126082112260721E-3</v>
       </c>
       <c r="H11" s="3">
-        <f>H$9*$B$3/$E11</f>
+        <f t="shared" si="4"/>
         <v>2.6563041056130358E-5</v>
       </c>
       <c r="I11" s="3">
-        <f>I$9*$B$3/$E11</f>
+        <f t="shared" si="4"/>
         <v>1.3281520528065179E-4</v>
       </c>
     </row>
@@ -656,35 +656,35 @@
         <v>1.2</v>
       </c>
       <c r="B12" s="1">
-        <f>$A12*$B$1/$B$3</f>
+        <f t="shared" si="0"/>
         <v>6605504.5871559633</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7460814173223113E-3</v>
       </c>
       <c r="D12" s="2">
-        <f>C12*0.5*$B$2*$A12^2</f>
+        <f t="shared" si="2"/>
         <v>1.9734219810931672</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.4465476726018173E-2</v>
       </c>
       <c r="F12" s="3">
-        <f>F$9*$B$3/$E12</f>
+        <f t="shared" si="4"/>
         <v>7.354019884119713E-4</v>
       </c>
       <c r="G12" s="3">
-        <f>G$9*$B$3/$E12</f>
+        <f t="shared" si="4"/>
         <v>4.9026799227464756E-3</v>
       </c>
       <c r="H12" s="3">
-        <f>H$9*$B$3/$E12</f>
+        <f t="shared" si="4"/>
         <v>2.4513399613732378E-5</v>
       </c>
       <c r="I12" s="3">
-        <f>I$9*$B$3/$E12</f>
+        <f t="shared" si="4"/>
         <v>1.2256699806866187E-4</v>
       </c>
     </row>
@@ -693,35 +693,35 @@
         <v>1.3</v>
       </c>
       <c r="B13" s="1">
-        <f>$A13*$B$1/$B$3</f>
+        <f t="shared" si="0"/>
         <v>7155963.3027522946</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7125731803127537E-3</v>
       </c>
       <c r="D13" s="2">
-        <f>C13*0.5*$B$2*$A13^2</f>
+        <f t="shared" si="2"/>
         <v>2.2877693011232849</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.7876135363709937E-2</v>
       </c>
       <c r="F13" s="3">
-        <f>F$9*$B$3/$E13</f>
+        <f t="shared" si="4"/>
         <v>6.8301252286930752E-4</v>
       </c>
       <c r="G13" s="3">
-        <f>G$9*$B$3/$E13</f>
+        <f t="shared" si="4"/>
         <v>4.5534168191287173E-3</v>
       </c>
       <c r="H13" s="3">
-        <f>H$9*$B$3/$E13</f>
+        <f t="shared" si="4"/>
         <v>2.2767084095643586E-5</v>
       </c>
       <c r="I13" s="3">
-        <f>I$9*$B$3/$E13</f>
+        <f t="shared" si="4"/>
         <v>1.1383542047821793E-4</v>
       </c>
     </row>
@@ -730,35 +730,35 @@
         <v>1.4</v>
       </c>
       <c r="B14" s="1">
-        <f>$A14*$B$1/$B$3</f>
+        <f t="shared" si="0"/>
         <v>7706422.0183486231</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6820699425473306E-3</v>
       </c>
       <c r="D14" s="2">
-        <f>C14*0.5*$B$2*$A14^2</f>
+        <f t="shared" si="2"/>
         <v>2.6234345294633603</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.1268202072009349E-2</v>
       </c>
       <c r="F14" s="3">
-        <f>F$9*$B$3/$E14</f>
+        <f t="shared" si="4"/>
         <v>6.3782225001904357E-4</v>
       </c>
       <c r="G14" s="3">
-        <f>G$9*$B$3/$E14</f>
+        <f t="shared" si="4"/>
         <v>4.2521483334602905E-3</v>
       </c>
       <c r="H14" s="3">
-        <f>H$9*$B$3/$E14</f>
+        <f t="shared" si="4"/>
         <v>2.1260741667301453E-5</v>
       </c>
       <c r="I14" s="3">
-        <f>I$9*$B$3/$E14</f>
+        <f t="shared" si="4"/>
         <v>1.0630370833650728E-4</v>
       </c>
     </row>
@@ -767,35 +767,35 @@
         <v>1.5</v>
       </c>
       <c r="B15" s="1">
-        <f>$A15*$B$1/$B$3</f>
+        <f t="shared" si="0"/>
         <v>8256880.7339449544</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6541125338456124E-3</v>
       </c>
       <c r="D15" s="2">
-        <f>C15*0.5*$B$2*$A15^2</f>
+        <f t="shared" si="2"/>
         <v>2.9802034350352189</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.4643175242442797E-2</v>
       </c>
       <c r="F15" s="3">
-        <f>F$9*$B$3/$E15</f>
+        <f t="shared" si="4"/>
         <v>5.9842788884275971E-4</v>
       </c>
       <c r="G15" s="3">
-        <f>G$9*$B$3/$E15</f>
+        <f t="shared" si="4"/>
         <v>3.9895192589517311E-3</v>
       </c>
       <c r="H15" s="3">
-        <f>H$9*$B$3/$E15</f>
+        <f t="shared" si="4"/>
         <v>1.9947596294758657E-5</v>
       </c>
       <c r="I15" s="3">
-        <f>I$9*$B$3/$E15</f>
+        <f t="shared" si="4"/>
         <v>9.9737981473793281E-5</v>
       </c>
     </row>
@@ -804,35 +804,35 @@
         <v>1.6</v>
       </c>
       <c r="B16" s="1">
-        <f>$A16*$B$1/$B$3</f>
+        <f t="shared" si="0"/>
         <v>8807339.4495412856</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6283370805411832E-3</v>
       </c>
       <c r="D16" s="2">
-        <f>C16*0.5*$B$2*$A16^2</f>
+        <f t="shared" si="2"/>
         <v>3.357879347312839</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.8002340151865554E-2</v>
       </c>
       <c r="F16" s="3">
-        <f>F$9*$B$3/$E16</f>
+        <f t="shared" si="4"/>
         <v>5.6377035675427402E-4</v>
       </c>
       <c r="G16" s="3">
-        <f>G$9*$B$3/$E16</f>
+        <f t="shared" si="4"/>
         <v>3.7584690450284939E-3</v>
       </c>
       <c r="H16" s="3">
-        <f>H$9*$B$3/$E16</f>
+        <f t="shared" si="4"/>
         <v>1.8792345225142468E-5</v>
       </c>
       <c r="I16" s="3">
-        <f>I$9*$B$3/$E16</f>
+        <f t="shared" si="4"/>
         <v>9.3961726125712337E-5</v>
       </c>
     </row>
@@ -841,35 +841,35 @@
         <v>1.7</v>
       </c>
       <c r="B17" s="1">
-        <f>$A17*$B$1/$B$3</f>
+        <f t="shared" si="0"/>
         <v>9357798.1651376151</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6044506494687231E-3</v>
       </c>
       <c r="D17" s="2">
-        <f>C17*0.5*$B$2*$A17^2</f>
+        <f t="shared" si="2"/>
         <v>3.7562806692241879</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.1346810744180531E-2</v>
       </c>
       <c r="F17" s="3">
-        <f>F$9*$B$3/$E17</f>
+        <f t="shared" si="4"/>
         <v>5.33035044582199E-4</v>
       </c>
       <c r="G17" s="3">
-        <f>G$9*$B$3/$E17</f>
+        <f t="shared" si="4"/>
         <v>3.5535669638813269E-3</v>
       </c>
       <c r="H17" s="3">
-        <f>H$9*$B$3/$E17</f>
+        <f t="shared" si="4"/>
         <v>1.7767834819406635E-5</v>
       </c>
       <c r="I17" s="3">
-        <f>I$9*$B$3/$E17</f>
+        <f t="shared" si="4"/>
         <v>8.8839174097033171E-5</v>
       </c>
     </row>
@@ -878,35 +878,35 @@
         <v>1.8</v>
       </c>
       <c r="B18" s="1">
-        <f>$A18*$B$1/$B$3</f>
+        <f t="shared" si="0"/>
         <v>9908256.8807339463</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5822141528056672E-3</v>
       </c>
       <c r="D18" s="2">
-        <f>C18*0.5*$B$2*$A18^2</f>
+        <f t="shared" si="2"/>
         <v>4.1752388723828453</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.4677561236839945E-2</v>
       </c>
       <c r="F18" s="3">
-        <f>F$9*$B$3/$E18</f>
+        <f t="shared" si="4"/>
         <v>5.0558492581773899E-4</v>
       </c>
       <c r="G18" s="3">
-        <f>G$9*$B$3/$E18</f>
+        <f t="shared" si="4"/>
         <v>3.3705661721182604E-3</v>
       </c>
       <c r="H18" s="3">
-        <f>H$9*$B$3/$E18</f>
+        <f t="shared" si="4"/>
         <v>1.6852830860591303E-5</v>
       </c>
       <c r="I18" s="3">
-        <f>I$9*$B$3/$E18</f>
+        <f t="shared" si="4"/>
         <v>8.4264154302956498E-5</v>
       </c>
     </row>
@@ -915,35 +915,35 @@
         <v>1.9</v>
       </c>
       <c r="B19" s="1">
-        <f>$A19*$B$1/$B$3</f>
+        <f t="shared" si="0"/>
         <v>10458715.596330274</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5614300737996244E-3</v>
       </c>
       <c r="D19" s="2">
-        <f>C19*0.5*$B$2*$A19^2</f>
+        <f t="shared" si="2"/>
         <v>4.6145968587702262</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.7995450459632387E-2</v>
       </c>
       <c r="F19" s="3">
-        <f>F$9*$B$3/$E19</f>
+        <f t="shared" si="4"/>
         <v>4.8091452853030756E-4</v>
       </c>
       <c r="G19" s="3">
-        <f>G$9*$B$3/$E19</f>
+        <f t="shared" si="4"/>
         <v>3.2060968568687173E-3</v>
       </c>
       <c r="H19" s="3">
-        <f>H$9*$B$3/$E19</f>
+        <f t="shared" si="4"/>
         <v>1.6030484284343588E-5</v>
       </c>
       <c r="I19" s="3">
-        <f>I$9*$B$3/$E19</f>
+        <f t="shared" si="4"/>
         <v>8.0152421421717931E-5</v>
       </c>
     </row>
@@ -952,35 +952,35 @@
         <v>2</v>
       </c>
       <c r="B20" s="1">
-        <f>$A20*$B$1/$B$3</f>
+        <f t="shared" si="0"/>
         <v>11009174.311926605</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5419334764138239E-3</v>
       </c>
       <c r="D20" s="2">
-        <f>C20*0.5*$B$2*$A20^2</f>
+        <f t="shared" si="2"/>
         <v>5.0742076056172749</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.1301240892621548E-2</v>
       </c>
       <c r="F20" s="3">
-        <f>F$9*$B$3/$E20</f>
+        <f t="shared" si="4"/>
         <v>4.586175442478713E-4</v>
       </c>
       <c r="G20" s="3">
-        <f>G$9*$B$3/$E20</f>
+        <f t="shared" si="4"/>
         <v>3.057450294985809E-3</v>
       </c>
       <c r="H20" s="3">
-        <f>H$9*$B$3/$E20</f>
+        <f t="shared" si="4"/>
         <v>1.5287251474929047E-5</v>
       </c>
       <c r="I20" s="3">
-        <f>I$9*$B$3/$E20</f>
+        <f t="shared" si="4"/>
         <v>7.6436257374645221E-5</v>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
         <v>0.13034364783429583</v>
       </c>
       <c r="C25" s="1">
-        <f>$A25*$B$1/$B$3</f>
+        <f t="shared" ref="C25:C35" si="5">$A25*$B$1/$B$3</f>
         <v>5504587.1559633026</v>
       </c>
       <c r="D25" s="1">
@@ -1057,27 +1057,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26:B35" si="2">A26/SQRT(9.81*$B$1)</f>
+        <f t="shared" ref="B26:B35" si="6">A26/SQRT(9.81*$B$1)</f>
         <v>0.14337801261772545</v>
       </c>
       <c r="C26" s="1">
-        <f>$A26*$B$1/$B$3</f>
+        <f t="shared" si="5"/>
         <v>6055045.8715596339</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:D35" si="3">0.075/(LOG10(C26)-2)^2</f>
+        <f t="shared" ref="D26:D35" si="7">0.075/(LOG10(C26)-2)^2</f>
         <v>3.2795993303269075E-3</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" ref="E26:E35" si="4">E$23*$B$1/(C26*SQRT(D26/2))</f>
+        <f t="shared" ref="E26:E35" si="8">E$23*$B$1/(C26*SQRT(D26/2))</f>
         <v>2.447025054912376E-5</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" ref="F26:F35" si="5">E26*$F$23</f>
+        <f t="shared" ref="F26:F35" si="9">E26*$F$23</f>
         <v>7.3410751647371277E-4</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" ref="G26:G35" si="6">E26*$G$23</f>
+        <f t="shared" ref="G26:G35" si="10">E26*$G$23</f>
         <v>2.4470250549123761E-3</v>
       </c>
     </row>
@@ -1086,27 +1086,27 @@
         <v>1.2</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.15641237740115502</v>
       </c>
       <c r="C27" s="1">
-        <f>$A27*$B$1/$B$3</f>
+        <f t="shared" si="5"/>
         <v>6605504.5871559633</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.228376123162238E-3</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.2608314524510062E-5</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.7824943573530181E-4</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.2608314524510064E-3</v>
       </c>
     </row>
@@ -1115,27 +1115,27 @@
         <v>1.3</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.16944674218458461</v>
       </c>
       <c r="C28" s="1">
-        <f>$A28*$B$1/$B$3</f>
+        <f t="shared" si="5"/>
         <v>7155963.3027522946</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1823077393438644E-3</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.1019726262518938E-5</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.3059178787556818E-4</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.1019726262518938E-3</v>
       </c>
     </row>
@@ -1144,27 +1144,27 @@
         <v>1.4</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.18248110696801417</v>
       </c>
       <c r="C29" s="1">
-        <f>$A29*$B$1/$B$3</f>
+        <f t="shared" si="5"/>
         <v>7706422.0183486231</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1405285826800909E-3</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.9647716586189905E-5</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.8943149758569711E-4</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.9647716586189906E-3</v>
       </c>
     </row>
@@ -1173,27 +1173,27 @@
         <v>1.5</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.19551547175144376</v>
       </c>
       <c r="C30" s="1">
-        <f>$A30*$B$1/$B$3</f>
+        <f t="shared" si="5"/>
         <v>8256880.7339449544</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.1023682634700265E-3</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.8450305525779096E-5</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.5350916577337288E-4</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.8450305525779095E-3</v>
       </c>
     </row>
@@ -1202,27 +1202,27 @@
         <v>1.6</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.20854983653487336</v>
       </c>
       <c r="C31" s="1">
-        <f>$A31*$B$1/$B$3</f>
+        <f t="shared" si="5"/>
         <v>8807339.4495412856</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.0672978077827349E-3</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.7395765355329506E-5</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.2187296065988524E-4</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.7395765355329505E-3</v>
       </c>
     </row>
@@ -1231,27 +1231,27 @@
         <v>1.7</v>
       </c>
       <c r="B32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.22158420131830292</v>
       </c>
       <c r="C32" s="1">
-        <f>$A32*$B$1/$B$3</f>
+        <f t="shared" si="5"/>
         <v>9357798.1651376151</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.0348930521809959E-3</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.6459660710821906E-5</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.9378982132465717E-4</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.6459660710821905E-3</v>
       </c>
     </row>
@@ -1260,27 +1260,27 @@
         <v>1.8</v>
       </c>
       <c r="B33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.23461856610173254</v>
       </c>
       <c r="C33" s="1">
-        <f>$A33*$B$1/$B$3</f>
+        <f t="shared" si="5"/>
         <v>9908256.8807339463</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.0048090650081948E-3</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.562286033483747E-5</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.6868581004512412E-4</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.562286033483747E-3</v>
       </c>
     </row>
@@ -1289,27 +1289,27 @@
         <v>1.9</v>
       </c>
       <c r="B34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.2476529308851621</v>
       </c>
       <c r="C34" s="1">
-        <f>$A34*$B$1/$B$3</f>
+        <f t="shared" si="5"/>
         <v>10458715.596330274</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9767618561539794E-3</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.487016709866128E-5</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.4610501295983841E-4</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.487016709866128E-3</v>
       </c>
     </row>
@@ -1318,27 +1318,27 @@
         <v>2</v>
       </c>
       <c r="B35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.26068729566859167</v>
       </c>
       <c r="C35" s="1">
-        <f>$A35*$B$1/$B$3</f>
+        <f t="shared" si="5"/>
         <v>11009174.311926605</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9505150311570595E-3</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4189352713891893E-5</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4.2568058141675676E-4</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.4189352713891892E-3</v>
       </c>
     </row>

--- a/07_Bonus/BoundryLayer and y+.xlsx
+++ b/07_Bonus/BoundryLayer and y+.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenFoam\v2112\msys64\home\ofuser\Marine\DTCHull_Tutorials\07_Bonus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenFOAM\v2112\msys64\home\ofuser\OpenFOAM\DTCHull_Tutorials\07_Bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07CBC7D-DBED-4E99-A191-9995A9364988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46B08D2-5D80-4E43-BEC3-C7ABB4DFEFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wall Distance" sheetId="1" r:id="rId1"/>
@@ -453,35 +453,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" customWidth="1"/>
+    <col min="4" max="4" width="10.53125" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -492,7 +492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -503,17 +503,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="F7" t="s">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -548,7 +548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -577,414 +577,414 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" ref="B10:B20" si="0">$A10*$B$1/$B$3</f>
-        <v>5504587.1559633026</v>
+        <v>4862385.3211009176</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ref="C10:C20" si="1">(2*LOG10(B10)-0.65)^-2.3</f>
-        <v>2.8246578265800205E-3</v>
+        <v>2.8799784027523975E-3</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ref="D10:D20" si="2">C10*0.5*$B$2*$A10^2</f>
-        <v>1.4096454883547593</v>
+        <v>1.4372532218935841</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ref="E10:E20" si="3">SQRT(D10/$B$2)</f>
-        <v>3.7580964773273322E-2</v>
+        <v>3.7947189637392104E-2</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ref="F10:I20" si="4">F$9*$B$3/$E10</f>
-        <v>8.7012135524672447E-4</v>
+        <v>8.6172389345476916E-4</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="4"/>
-        <v>5.8008090349781641E-3</v>
+        <v>5.7448259563651289E-3</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="4"/>
-        <v>2.9004045174890818E-5</v>
+        <v>2.8724129781825641E-5</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="4"/>
-        <v>1.4502022587445409E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.4362064890912821E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>6055045.8715596339</v>
+        <v>7293577.981651376</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>2.7831847377012306E-3</v>
+        <v>2.7046855022239001E-3</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="2"/>
-        <v>1.6806274954532572</v>
+        <v>3.036989924740884</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="3"/>
-        <v>4.1034458279709807E-2</v>
+        <v>5.5161319690539383E-2</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="4"/>
-        <v>7.9689123168391065E-4</v>
+        <v>5.9280670193262821E-4</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="4"/>
-        <v>5.3126082112260721E-3</v>
+        <v>3.9520446795508549E-3</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="4"/>
-        <v>2.6563041056130358E-5</v>
+        <v>1.9760223397754275E-5</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="4"/>
-        <v>1.3281520528065179E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9.8801116988771377E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>6605504.5871559633</v>
+        <v>9724770.6422018353</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
-        <v>2.7460814173223113E-3</v>
+        <v>2.5894559300119464E-3</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="2"/>
-        <v>1.9734219810931672</v>
+        <v>5.1690719274898473</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="3"/>
-        <v>4.4465476726018173E-2</v>
+        <v>7.1964657020122683E-2</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="4"/>
-        <v>7.354019884119713E-4</v>
+        <v>4.5438971509106831E-4</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="4"/>
-        <v>4.9026799227464756E-3</v>
+        <v>3.029264767273789E-3</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="4"/>
-        <v>2.4513399613732378E-5</v>
+        <v>1.5146323836368945E-5</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="4"/>
-        <v>1.2256699806866187E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7.5731619181844723E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>7155963.3027522946</v>
+        <v>12155963.302752294</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>2.7125731803127537E-3</v>
+        <v>2.5048673479445053E-3</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="2"/>
-        <v>2.2877693011232849</v>
+        <v>7.8128378124481586</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>4.7876135363709937E-2</v>
+        <v>8.8474349177185704E-2</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="4"/>
-        <v>6.8301252286930752E-4</v>
+        <v>3.6959864982462202E-4</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="4"/>
-        <v>4.5534168191287173E-3</v>
+        <v>2.4639909988308137E-3</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="4"/>
-        <v>2.2767084095643586E-5</v>
+        <v>1.2319954994154069E-5</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="4"/>
-        <v>1.1383542047821793E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6.1599774970770341E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>7706422.0183486231</v>
+        <v>14587155.963302752</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
-        <v>2.6820699425473306E-3</v>
+        <v>2.4386659339132753E-3</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="2"/>
-        <v>2.6234345294633603</v>
+        <v>10.95314610887478</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="3"/>
-        <v>5.1268202072009349E-2</v>
+        <v>0.1047568456121591</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="4"/>
-        <v>6.3782225001904357E-4</v>
+        <v>3.1215143801737876E-4</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="4"/>
-        <v>4.2521483334602905E-3</v>
+        <v>2.0810095867825249E-3</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="4"/>
-        <v>2.1260741667301453E-5</v>
+        <v>1.0405047933912625E-5</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="4"/>
-        <v>1.0630370833650728E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5.2025239669563124E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>8256880.7339449544</v>
+        <v>17018348.623853214</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>2.6541125338456124E-3</v>
+        <v>2.3846345648434334E-3</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="2"/>
-        <v>2.9802034350352189</v>
+        <v>14.578135524917663</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="3"/>
-        <v>5.4643175242442797E-2</v>
+        <v>0.12085481665894011</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="4"/>
-        <v>5.9842788884275971E-4</v>
+        <v>2.7057258373310391E-4</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="4"/>
-        <v>3.9895192589517311E-3</v>
+        <v>1.8038172248873595E-3</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="4"/>
-        <v>1.9947596294758657E-5</v>
+        <v>9.0190861244367969E-6</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="4"/>
-        <v>9.9737981473793281E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4.509543062218399E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>8807339.4495412856</v>
+        <v>19449541.284403671</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>2.6283370805411832E-3</v>
+        <v>2.3392080880654531E-3</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="2"/>
-        <v>3.357879347312839</v>
+        <v>18.678108741585032</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="3"/>
-        <v>5.8002340151865554E-2</v>
+        <v>0.13679789729569539</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="4"/>
-        <v>5.6377035675427402E-4</v>
+        <v>2.390387618993685E-4</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="4"/>
-        <v>3.7584690450284939E-3</v>
+        <v>1.5935917459957902E-3</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="4"/>
-        <v>1.8792345225142468E-5</v>
+        <v>7.967958729978951E-6</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="4"/>
-        <v>9.3961726125712337E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.9839793649894755E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>9357798.1651376151</v>
+        <v>21880733.944954127</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>2.6044506494687231E-3</v>
+        <v>2.3001626372934664E-3</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="2"/>
-        <v>3.7562806692241879</v>
+        <v>23.244897323861412</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="3"/>
-        <v>6.1346810744180531E-2</v>
+        <v>0.15260781992609798</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="4"/>
-        <v>5.33035044582199E-4</v>
+        <v>2.1427473386249362E-4</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="4"/>
-        <v>3.5535669638813269E-3</v>
+        <v>1.4284982257499576E-3</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="4"/>
-        <v>1.7767834819406635E-5</v>
+        <v>7.1424911287497874E-6</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="4"/>
-        <v>8.8839174097033171E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.5712455643748941E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
-        <v>9908256.8807339463</v>
+        <v>24311926.605504587</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>2.5822141528056672E-3</v>
+        <v>2.2660228019497622E-3</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="2"/>
-        <v>4.1752388723828453</v>
+        <v>28.271466982825721</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="3"/>
-        <v>6.4677561236839945E-2</v>
+        <v>0.16830117356801771</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="4"/>
-        <v>5.0558492581773899E-4</v>
+        <v>1.9429454534839903E-4</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="4"/>
-        <v>3.3705661721182604E-3</v>
+        <v>1.295296968989327E-3</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="4"/>
-        <v>1.6852830860591303E-5</v>
+        <v>6.4764848449466349E-6</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="4"/>
-        <v>8.4264154302956498E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.2382424224733171E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>10458715.596330274</v>
+        <v>26743119.266055048</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
-        <v>2.5614300737996244E-3</v>
+        <v>2.2357624007467995E-3</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="2"/>
-        <v>4.6145968587702262</v>
+        <v>33.751656089303879</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="3"/>
-        <v>6.7995450459632387E-2</v>
+        <v>0.18389101748398518</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="4"/>
-        <v>4.8091452853030756E-4</v>
+        <v>1.7782271503744219E-4</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="4"/>
-        <v>3.2060968568687173E-3</v>
+        <v>1.1854847669162815E-3</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="4"/>
-        <v>1.6030484284343588E-5</v>
+        <v>5.9274238345814069E-6</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="4"/>
-        <v>8.0152421421717931E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.9637119172907034E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>11009174.311926605</v>
+        <v>29174311.926605504</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
-        <v>2.5419334764138239E-3</v>
+        <v>2.2086405217252979E-3</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="2"/>
-        <v>5.0742076056172749</v>
+        <v>39.679993885212355</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="3"/>
-        <v>7.1301240892621548E-2</v>
+        <v>0.19938788677112598</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="4"/>
-        <v>4.586175442478713E-4</v>
+        <v>1.6400193878144553E-4</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="4"/>
-        <v>3.057450294985809E-3</v>
+        <v>1.0933462585429703E-3</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="4"/>
-        <v>1.5287251474929047E-5</v>
+        <v>5.466731292714851E-6</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="4"/>
-        <v>7.6436257374645221E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.7333656463574256E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -992,7 +992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
         <v>26</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1023,431 +1023,431 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25">
         <f>A25/SQRT(9.81*$B$1)</f>
-        <v>0.13034364783429583</v>
+        <v>0.1386843838963103</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" ref="C25:C35" si="5">$A25*$B$1/$B$3</f>
-        <v>5504587.1559633026</v>
+        <v>4862385.3211009176</v>
       </c>
       <c r="D25" s="1">
         <f>0.075/(LOG10(C25)-2)^2</f>
-        <v>3.3371196770135905E-3</v>
+        <v>3.414281076847301E-3</v>
       </c>
       <c r="E25" s="3">
         <f>E$23*$B$1/(C25*SQRT(D25/2))</f>
-        <v>2.6684287115373273E-5</v>
+        <v>2.6381036831011389E-5</v>
       </c>
       <c r="F25" s="3">
         <f>E25*$F$23</f>
-        <v>8.0052861346119818E-4</v>
+        <v>7.9143110493034164E-4</v>
       </c>
       <c r="G25" s="3">
         <f>E25*$G$23</f>
-        <v>2.6684287115373274E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.6381036831011387E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="B26">
         <f t="shared" ref="B26:B35" si="6">A26/SQRT(9.81*$B$1)</f>
-        <v>0.14337801261772545</v>
+        <v>0.20802657584446543</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
-        <v>6055045.8715596339</v>
+        <v>7293577.981651376</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" ref="D26:D35" si="7">0.075/(LOG10(C26)-2)^2</f>
-        <v>3.2795993303269075E-3</v>
+        <v>3.1714898686035029E-3</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" ref="E26:E35" si="8">E$23*$B$1/(C26*SQRT(D26/2))</f>
-        <v>2.447025054912376E-5</v>
+        <v>1.8248138669537847E-5</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" ref="F26:F35" si="9">E26*$F$23</f>
-        <v>7.3410751647371277E-4</v>
+        <v>5.4744416008613544E-4</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" ref="G26:G35" si="10">E26*$G$23</f>
-        <v>2.4470250549123761E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.8248138669537846E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="B27">
         <f t="shared" si="6"/>
-        <v>0.15641237740115502</v>
+        <v>0.2773687677926206</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
-        <v>6605504.5871559633</v>
+        <v>9724770.6422018353</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="7"/>
-        <v>3.228376123162238E-3</v>
+        <v>3.0145978181769805E-3</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="8"/>
-        <v>2.2608314524510062E-5</v>
+        <v>1.4037727571710949E-5</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="9"/>
-        <v>6.7824943573530181E-4</v>
+        <v>4.2113182715132849E-4</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="10"/>
-        <v>2.2608314524510064E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.4037727571710949E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="B28">
         <f t="shared" si="6"/>
-        <v>0.16944674218458461</v>
+        <v>0.3467109597407757</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
-        <v>7155963.3027522946</v>
+        <v>12155963.302752294</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="7"/>
-        <v>3.1823077393438644E-3</v>
+        <v>2.9007835665112078E-3</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="8"/>
-        <v>2.1019726262518938E-5</v>
+        <v>1.1448374401071391E-5</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="9"/>
-        <v>6.3059178787556818E-4</v>
+        <v>3.434512320321417E-4</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="10"/>
-        <v>2.1019726262518938E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.144837440107139E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="B29">
         <f t="shared" si="6"/>
-        <v>0.18248110696801417</v>
+        <v>0.41605315168893087</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
-        <v>7706422.0183486231</v>
+        <v>14587155.963302752</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="7"/>
-        <v>3.1405285826800909E-3</v>
+        <v>2.8125078085643779E-3</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="8"/>
-        <v>1.9647716586189905E-5</v>
+        <v>9.6888754389057609E-6</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="9"/>
-        <v>5.8943149758569711E-4</v>
+        <v>2.9066626316717281E-4</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="10"/>
-        <v>1.9647716586189906E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9.6888754389057611E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="B30">
         <f t="shared" si="6"/>
-        <v>0.19551547175144376</v>
+        <v>0.48539534363708603</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
-        <v>8256880.7339449544</v>
+        <v>17018348.623853214</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="7"/>
-        <v>3.1023682634700265E-3</v>
+        <v>2.7409779145534368E-3</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" si="8"/>
-        <v>1.8450305525779096E-5</v>
+        <v>8.4124148879917329E-6</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="9"/>
-        <v>5.5350916577337288E-4</v>
+        <v>2.5237244663975199E-4</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="10"/>
-        <v>1.8450305525779095E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8.4124148879917329E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <f t="shared" si="6"/>
-        <v>0.20854983653487336</v>
+        <v>0.55473753558524119</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
-        <v>8807339.4495412856</v>
+        <v>19449541.284403671</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="7"/>
-        <v>3.0672978077827349E-3</v>
+        <v>2.6811987879393775E-3</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" si="8"/>
-        <v>1.7395765355329506E-5</v>
+        <v>7.4424683639581027E-6</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="9"/>
-        <v>5.2187296065988524E-4</v>
+        <v>2.2327405091874308E-4</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="10"/>
-        <v>1.7395765355329505E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7.4424683639581031E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="B32">
         <f t="shared" si="6"/>
-        <v>0.22158420131830292</v>
+        <v>0.62407972753339636</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
-        <v>9357798.1651376151</v>
+        <v>21880733.944954127</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="7"/>
-        <v>3.0348930521809959E-3</v>
+        <v>2.6300783316952222E-3</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="8"/>
-        <v>1.6459660710821906E-5</v>
+        <v>6.6795105533361457E-6</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="9"/>
-        <v>4.9378982132465717E-4</v>
+        <v>2.0038531660008437E-4</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="10"/>
-        <v>1.6459660710821905E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6.679510553336146E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <f t="shared" si="6"/>
-        <v>0.23461856610173254</v>
+        <v>0.69342191948155141</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
-        <v>9908256.8807339463</v>
+        <v>24311926.605504587</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="7"/>
-        <v>3.0048090650081948E-3</v>
+        <v>2.5855783022690872E-3</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="8"/>
-        <v>1.562286033483747E-5</v>
+        <v>6.0630708630177982E-6</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="9"/>
-        <v>4.6868581004512412E-4</v>
+        <v>1.8189212589053396E-4</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="10"/>
-        <v>1.562286033483747E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6.0630708630177979E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="B34">
         <f t="shared" si="6"/>
-        <v>0.2476529308851621</v>
+        <v>0.76276411142970657</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
-        <v>10458715.596330274</v>
+        <v>26743119.266055048</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="7"/>
-        <v>2.9767618561539794E-3</v>
+        <v>2.5462889220853086E-3</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" si="8"/>
-        <v>1.487016709866128E-5</v>
+        <v>5.5542441461367009E-6</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="9"/>
-        <v>4.4610501295983841E-4</v>
+        <v>1.6662732438410102E-4</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="10"/>
-        <v>1.487016709866128E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5.5542441461367011E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <f t="shared" si="6"/>
-        <v>0.26068729566859167</v>
+        <v>0.83210630337786173</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
-        <v>11009174.311926605</v>
+        <v>29174311.926605504</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="7"/>
-        <v>2.9505150311570595E-3</v>
+        <v>2.5111972780799156E-3</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" si="8"/>
-        <v>1.4189352713891893E-5</v>
+        <v>5.1268407715212983E-6</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="9"/>
-        <v>4.2568058141675676E-4</v>
+        <v>1.5380522314563895E-4</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="10"/>
-        <v>1.4189352713891892E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5.1268407715212986E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
